--- a/MFRP-844791/src/test/resources/TestData/MercuryToursExcel.xlsx
+++ b/MFRP-844791/src/test/resources/TestData/MercuryToursExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Projects\MFRP-844791\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB398A57-340C-4A85-A090-D907E2AE0AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91DD901-B757-4FF9-9111-F9E08A68AE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB57997D-E69F-4A5E-A4BA-539743C4B190}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>TestCase</t>
   </si>
@@ -205,14 +205,88 @@
   </si>
   <si>
     <t>cruiseData Retrived</t>
+  </si>
+  <si>
+    <t>Test Data 2</t>
+  </si>
+  <si>
+    <t>Test Data 3</t>
+  </si>
+  <si>
+    <t>Test Data 4</t>
+  </si>
+  <si>
+    <t>Test Data 5</t>
+  </si>
+  <si>
+    <t>Test Data 6</t>
+  </si>
+  <si>
+    <t>Test Data 7</t>
+  </si>
+  <si>
+    <t>Test Data 8</t>
+  </si>
+  <si>
+    <t>Test Data 9</t>
+  </si>
+  <si>
+    <t>Test Data 10</t>
+  </si>
+  <si>
+    <t>prema1234</t>
+  </si>
+  <si>
+    <t>prema7</t>
+  </si>
+  <si>
+    <t>hrishin56</t>
+  </si>
+  <si>
+    <t>hrishin1234</t>
+  </si>
+  <si>
+    <t>kavya345</t>
+  </si>
+  <si>
+    <t>kavya67</t>
+  </si>
+  <si>
+    <t>waheeda123</t>
+  </si>
+  <si>
+    <t>wahi678</t>
+  </si>
+  <si>
+    <t>siddu1234</t>
+  </si>
+  <si>
+    <t>sidu123</t>
+  </si>
+  <si>
+    <t>achi345</t>
+  </si>
+  <si>
+    <t>achi12345</t>
+  </si>
+  <si>
+    <t>Saritha123</t>
+  </si>
+  <si>
+    <t>gmail123</t>
+  </si>
+  <si>
+    <t>amith7869</t>
+  </si>
+  <si>
+    <t>demo56733</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +313,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -333,6 +413,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -357,12 +443,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -679,49 +759,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3260A1AD-FBCE-48C4-8716-BDA023B77EE4}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="1" width="28.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="26.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="11.0" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="28.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -730,154 +810,154 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3">
         <v>834691765</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="3">
         <v>517247</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -886,37 +966,37 @@
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -925,28 +1005,28 @@
       <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -968,7 +1048,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="3"/>
@@ -1040,7 +1120,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1056,8 +1136,215 @@
         <v>56</v>
       </c>
     </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="20">
     <mergeCell ref="G2:G12"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="E2:E12"/>
@@ -1073,7 +1360,13 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{8FFC61A5-9A99-41D7-9B43-2211AA733E00}"/>
   </hyperlinks>
